--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1477,28 +1477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.71642422318934</v>
+        <v>137.7690240780969</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.0681666833831</v>
+        <v>188.5016566839518</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.1774504245196</v>
+        <v>170.5113231338253</v>
       </c>
       <c r="AD2" t="n">
-        <v>98716.42422318933</v>
+        <v>137769.024078097</v>
       </c>
       <c r="AE2" t="n">
-        <v>135068.1666833831</v>
+        <v>188501.6566839518</v>
       </c>
       <c r="AF2" t="n">
         <v>2.108348616909346e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.44140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>122177.4504245196</v>
+        <v>170511.3231338253</v>
       </c>
     </row>
     <row r="3">
@@ -1583,28 +1583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.59918371773219</v>
+        <v>125.9315931398532</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.1712648177592</v>
+        <v>172.305161443659</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.5570248071227</v>
+        <v>155.860598667337</v>
       </c>
       <c r="AD3" t="n">
-        <v>96599.18371773219</v>
+        <v>125931.5931398532</v>
       </c>
       <c r="AE3" t="n">
-        <v>132171.2648177592</v>
+        <v>172305.161443659</v>
       </c>
       <c r="AF3" t="n">
         <v>2.222933042913235e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.057291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>119557.0248071227</v>
+        <v>155860.598667337</v>
       </c>
     </row>
   </sheetData>
@@ -1880,28 +1880,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.35044361476213</v>
+        <v>124.3589366761625</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.4626835183512</v>
+        <v>170.1533834893318</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.0115081089207</v>
+        <v>153.9141833809309</v>
       </c>
       <c r="AD2" t="n">
-        <v>95350.44361476213</v>
+        <v>124358.9366761625</v>
       </c>
       <c r="AE2" t="n">
-        <v>130462.6835183512</v>
+        <v>170153.3834893318</v>
       </c>
       <c r="AF2" t="n">
         <v>2.371205652166862e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.239583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>118011.5081089207</v>
+        <v>153914.1833809309</v>
       </c>
     </row>
   </sheetData>
@@ -2177,28 +2177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.3581376464762</v>
+        <v>152.7469102164581</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.8380931696931</v>
+        <v>208.9950612761483</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.774247084776</v>
+        <v>189.0488659544231</v>
       </c>
       <c r="AD2" t="n">
-        <v>115358.1376464762</v>
+        <v>152746.9102164581</v>
       </c>
       <c r="AE2" t="n">
-        <v>157838.0931696931</v>
+        <v>208995.0612761483</v>
       </c>
       <c r="AF2" t="n">
         <v>2.64378953925567e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.069010416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>142774.247084776</v>
+        <v>189048.8659544231</v>
       </c>
     </row>
   </sheetData>
@@ -2474,28 +2474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.4884506334789</v>
+        <v>142.3514113396895</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.9657078617707</v>
+        <v>194.7714810959177</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.3212613571131</v>
+        <v>176.182764303669</v>
       </c>
       <c r="AD2" t="n">
-        <v>104488.4506334789</v>
+        <v>142351.4113396895</v>
       </c>
       <c r="AE2" t="n">
-        <v>142965.7078617706</v>
+        <v>194771.4810959177</v>
       </c>
       <c r="AF2" t="n">
         <v>2.587865739468125e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>129321.2613571131</v>
+        <v>176182.764303669</v>
       </c>
     </row>
   </sheetData>
@@ -2771,28 +2771,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.3647628160221</v>
+        <v>173.553658964203</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.2660874215761</v>
+        <v>237.463772841769</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.6343766220993</v>
+        <v>214.8005636443177</v>
       </c>
       <c r="AD2" t="n">
-        <v>127364.7628160221</v>
+        <v>173553.6589642029</v>
       </c>
       <c r="AE2" t="n">
-        <v>174266.0874215761</v>
+        <v>237463.772841769</v>
       </c>
       <c r="AF2" t="n">
         <v>2.6297148709894e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.44270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>157634.3766220993</v>
+        <v>214800.5636443177</v>
       </c>
     </row>
   </sheetData>
@@ -3068,28 +3068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.6623481561346</v>
+        <v>124.7559798636909</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.889445072114</v>
+        <v>170.6966354948171</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.3975401389561</v>
+        <v>154.4055881774718</v>
       </c>
       <c r="AD2" t="n">
-        <v>95662.3481561346</v>
+        <v>124755.9798636909</v>
       </c>
       <c r="AE2" t="n">
-        <v>130889.445072114</v>
+        <v>170696.6354948171</v>
       </c>
       <c r="AF2" t="n">
         <v>2.329573975328555e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.194010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>118397.5401389561</v>
+        <v>154405.5881774718</v>
       </c>
     </row>
   </sheetData>
@@ -3365,28 +3365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.7764161652896</v>
+        <v>194.9135263440598</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.2482590975359</v>
+        <v>266.6892857217169</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.9957936679385</v>
+        <v>241.2368345932776</v>
       </c>
       <c r="AD2" t="n">
-        <v>139776.4161652896</v>
+        <v>194913.5263440598</v>
       </c>
       <c r="AE2" t="n">
-        <v>191248.2590975359</v>
+        <v>266689.2857217169</v>
       </c>
       <c r="AF2" t="n">
         <v>2.565100620451303e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.71223958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>172995.7936679385</v>
+        <v>241236.8345932776</v>
       </c>
     </row>
   </sheetData>
@@ -3662,28 +3662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.74327103122394</v>
+        <v>132.9955609391104</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.6319232029907</v>
+        <v>181.9703938268626</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.2600343920786</v>
+        <v>164.6033948371297</v>
       </c>
       <c r="AD2" t="n">
-        <v>94743.27103122394</v>
+        <v>132995.5609391104</v>
       </c>
       <c r="AE2" t="n">
-        <v>129631.9232029907</v>
+        <v>181970.3938268626</v>
       </c>
       <c r="AF2" t="n">
         <v>2.490561951312106e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>117260.0343920786</v>
+        <v>164603.3948371297</v>
       </c>
     </row>
   </sheetData>
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.24420673721202</v>
+        <v>133.7470832444461</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.3173255356469</v>
+        <v>182.9986597998465</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.8800228880745</v>
+        <v>165.5335245488327</v>
       </c>
       <c r="AD2" t="n">
-        <v>95244.20673721202</v>
+        <v>133747.0832444461</v>
       </c>
       <c r="AE2" t="n">
-        <v>130317.3255356469</v>
+        <v>182998.6597998465</v>
       </c>
       <c r="AF2" t="n">
         <v>2.402799523287097e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.337239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>117880.0228880745</v>
+        <v>165533.5245488327</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.15858294563854</v>
+        <v>136.1084376262376</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.9366595203325</v>
+        <v>186.229569040615</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.2493713135208</v>
+        <v>168.4560803462729</v>
       </c>
       <c r="AD2" t="n">
-        <v>97158.58294563854</v>
+        <v>136108.4376262376</v>
       </c>
       <c r="AE2" t="n">
-        <v>132936.6595203325</v>
+        <v>186229.569040615</v>
       </c>
       <c r="AF2" t="n">
         <v>2.20470036617029e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>120249.3713135208</v>
+        <v>168456.0803462729</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.11275798894823</v>
+        <v>125.3681085303378</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.5057156760487</v>
+        <v>171.5341769417338</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.9549947413927</v>
+        <v>155.1631958441918</v>
       </c>
       <c r="AD3" t="n">
-        <v>96112.75798894823</v>
+        <v>125368.1085303378</v>
       </c>
       <c r="AE3" t="n">
-        <v>131505.7156760487</v>
+        <v>171534.1769417338</v>
       </c>
       <c r="AF3" t="n">
         <v>2.268075749272228e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.063802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>118954.9947413927</v>
+        <v>155163.1958441919</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.87528713663831</v>
+        <v>132.954255093462</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.8125534625581</v>
+        <v>181.9138773465613</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.423425553189</v>
+        <v>164.5522722103869</v>
       </c>
       <c r="AD2" t="n">
-        <v>94875.2871366383</v>
+        <v>132954.255093462</v>
       </c>
       <c r="AE2" t="n">
-        <v>129812.5534625581</v>
+        <v>181913.8773465613</v>
       </c>
       <c r="AF2" t="n">
         <v>2.5496026956704e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.83203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>117423.4255531891</v>
+        <v>164552.2722103869</v>
       </c>
     </row>
   </sheetData>
@@ -4956,28 +4956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.9427400357807</v>
+        <v>151.9132414602334</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.5872866638337</v>
+        <v>207.8543989050123</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.8835175506987</v>
+        <v>188.0170667990583</v>
       </c>
       <c r="AD2" t="n">
-        <v>104942.7400357807</v>
+        <v>151913.2414602334</v>
       </c>
       <c r="AE2" t="n">
-        <v>143587.2866638337</v>
+        <v>207854.3989050123</v>
       </c>
       <c r="AF2" t="n">
         <v>2.647044882612776e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.580729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>129883.5175506987</v>
+        <v>188017.0667990583</v>
       </c>
     </row>
   </sheetData>
@@ -7786,28 +7786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.1958374246884</v>
+        <v>162.7256745129493</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.9842709629484</v>
+        <v>222.6484468186114</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.811035278114</v>
+        <v>201.3991915433649</v>
       </c>
       <c r="AD2" t="n">
-        <v>116195.8374246884</v>
+        <v>162725.6745129493</v>
       </c>
       <c r="AE2" t="n">
-        <v>158984.2709629484</v>
+        <v>222648.4468186114</v>
       </c>
       <c r="AF2" t="n">
         <v>2.656322588211722e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.602864583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>143811.035278114</v>
+        <v>201399.1915433648</v>
       </c>
     </row>
   </sheetData>
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.1125847615754</v>
+        <v>236.9859775415244</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.5460786069426</v>
+        <v>324.2546695556086</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.1157160171612</v>
+        <v>293.3082589876046</v>
       </c>
       <c r="AD2" t="n">
-        <v>164112.5847615754</v>
+        <v>236985.9775415244</v>
       </c>
       <c r="AE2" t="n">
-        <v>224546.0786069426</v>
+        <v>324254.6695556086</v>
       </c>
       <c r="AF2" t="n">
         <v>2.420350053818558e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.93880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>203115.7160171612</v>
+        <v>293308.2589876046</v>
       </c>
     </row>
   </sheetData>
@@ -8380,28 +8380,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.98966120674697</v>
+        <v>133.36991674913</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.9690451111086</v>
+        <v>182.4826039615439</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.5649818584393</v>
+        <v>165.0667203554486</v>
       </c>
       <c r="AD2" t="n">
-        <v>94989.66120674697</v>
+        <v>133369.91674913</v>
       </c>
       <c r="AE2" t="n">
-        <v>129969.0451111086</v>
+        <v>182482.6039615439</v>
       </c>
       <c r="AF2" t="n">
         <v>2.44527471766973e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.408854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>117564.9818584393</v>
+        <v>165066.7203554486</v>
       </c>
     </row>
   </sheetData>
@@ -8677,28 +8677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.12017855273015</v>
+        <v>125.2960105426859</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.5158688187873</v>
+        <v>171.4355292942899</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.9641788824384</v>
+        <v>155.0739629897671</v>
       </c>
       <c r="AD2" t="n">
-        <v>96120.17855273015</v>
+        <v>125296.0105426859</v>
       </c>
       <c r="AE2" t="n">
-        <v>131515.8688187873</v>
+        <v>171435.5292942899</v>
       </c>
       <c r="AF2" t="n">
         <v>2.282037180198146e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.174479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>118964.1788824384</v>
+        <v>155073.9629897671</v>
       </c>
     </row>
     <row r="3">
@@ -8783,28 +8783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.9513947109152</v>
+        <v>125.127226700871</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.2849313201986</v>
+        <v>171.2045917957012</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.7552817345921</v>
+        <v>154.8650658419208</v>
       </c>
       <c r="AD3" t="n">
-        <v>95951.39471091519</v>
+        <v>125127.226700871</v>
       </c>
       <c r="AE3" t="n">
-        <v>131284.9313201986</v>
+        <v>171204.5917957012</v>
       </c>
       <c r="AF3" t="n">
         <v>2.2970292345119e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.12890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>118755.2817345921</v>
+        <v>154865.0658419208</v>
       </c>
     </row>
   </sheetData>
@@ -9080,28 +9080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.4277130354687</v>
+        <v>313.6902411940622</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.7036539100177</v>
+        <v>429.2048270384482</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.5277262387091</v>
+        <v>388.2421207386561</v>
       </c>
       <c r="AD2" t="n">
-        <v>223427.7130354687</v>
+        <v>313690.2411940622</v>
       </c>
       <c r="AE2" t="n">
-        <v>305703.6539100177</v>
+        <v>429204.8270384482</v>
       </c>
       <c r="AF2" t="n">
         <v>2.11490903692035e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.7890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>276527.7262387091</v>
+        <v>388242.1207386561</v>
       </c>
     </row>
   </sheetData>
@@ -9377,28 +9377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.6070315758329</v>
+        <v>142.3121432101861</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.1279555385212</v>
+        <v>194.7177527087435</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.4680243433107</v>
+        <v>176.1341636783584</v>
       </c>
       <c r="AD2" t="n">
-        <v>104607.0315758329</v>
+        <v>142312.1432101861</v>
       </c>
       <c r="AE2" t="n">
-        <v>143127.9555385212</v>
+        <v>194717.7527087435</v>
       </c>
       <c r="AF2" t="n">
         <v>2.621736376750951e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.26171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>129468.0243433107</v>
+        <v>176134.1636783584</v>
       </c>
     </row>
   </sheetData>
@@ -9674,28 +9674,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.80977126914689</v>
+        <v>133.0295630656351</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.7229117623003</v>
+        <v>182.0169170364417</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.3423391309909</v>
+        <v>164.6454779368823</v>
       </c>
       <c r="AD2" t="n">
-        <v>94809.77126914689</v>
+        <v>133029.5630656351</v>
       </c>
       <c r="AE2" t="n">
-        <v>129722.9117623003</v>
+        <v>182016.9170364417</v>
       </c>
       <c r="AF2" t="n">
         <v>2.518044458518268e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>117342.3391309909</v>
+        <v>164645.4779368823</v>
       </c>
     </row>
   </sheetData>
